--- a/water/water_quality/water_quality.13.02.2015/VS_Water_Quality_02.07.2015.xls.xlsx
+++ b/water/water_quality/water_quality.13.02.2015/VS_Water_Quality_02.07.2015.xls.xlsx
@@ -18,12 +18,21 @@
     <t>type</t>
   </si>
   <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>list name</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>label</t>
   </si>
   <si>
+    <t>genus</t>
+  </si>
+  <si>
     <t>hint</t>
   </si>
   <si>
@@ -60,12 +69,57 @@
     <t>default</t>
   </si>
   <si>
+    <t>yn</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>water_lab_02_jul_2015_v1</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
     <t>start</t>
   </si>
   <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
     <t>end</t>
   </si>
   <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>cl2_ph</t>
+  </si>
+  <si>
+    <t>VS Water Laboratory Analysis Survey – 02 July 2015 v1</t>
+  </si>
+  <si>
     <t>today</t>
   </si>
   <si>
@@ -81,12 +135,12 @@
     <t>field-list</t>
   </si>
   <si>
+    <t>cl2_no3</t>
+  </si>
+  <si>
     <t>select one from country</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -105,18 +159,51 @@
     <t>analyst_last_name</t>
   </si>
   <si>
+    <t>high</t>
+  </si>
+  <si>
     <t>Analysts Last Name</t>
   </si>
   <si>
+    <t>High</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
     <t>sample_anlysis_date</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
     <t>Date of water sample analysis</t>
   </si>
   <si>
+    <t>ws1_measure</t>
+  </si>
+  <si>
+    <t>10ml</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
+    <t>50ml</t>
+  </si>
+  <si>
+    <t>56ml</t>
+  </si>
+  <si>
+    <t>3ml</t>
+  </si>
+  <si>
+    <t>1ml</t>
+  </si>
+  <si>
     <t>end group</t>
   </si>
   <si>
@@ -316,93 +403,6 @@
   </si>
   <si>
     <t>end repeat</t>
-  </si>
-  <si>
-    <t>list name</t>
-  </si>
-  <si>
-    <t>genus</t>
-  </si>
-  <si>
-    <t>yn</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>GHA</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>TZA</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>cl2_ph</t>
-  </si>
-  <si>
-    <t>cl2_no3</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>ws1_measure</t>
-  </si>
-  <si>
-    <t>10ml</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>50ml</t>
-  </si>
-  <si>
-    <t>56ml</t>
-  </si>
-  <si>
-    <t>3ml</t>
-  </si>
-  <si>
-    <t>1ml</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>form_title</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>water_lab_02_jul_2015_v1</t>
-  </si>
-  <si>
-    <t>VS Water Laboratory Analysis Survey – 02 July 2015 v1</t>
   </si>
 </sst>
 </file>
@@ -421,14 +421,14 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -459,9 +459,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -469,19 +477,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,6 +506,594 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="43.88"/>
+    <col customWidth="1" min="2" max="2" width="43.75"/>
+    <col customWidth="1" min="3" max="6" width="8.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.0" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" ht="13.5" customHeight="1">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" ht="13.5" customHeight="1">
+      <c r="A20" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.88"/>
+    <col customWidth="1" min="2" max="2" width="30.75"/>
+    <col customWidth="1" min="3" max="3" width="23.13"/>
+    <col customWidth="1" min="4" max="14" width="10.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" ht="15.0" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" ht="12.0" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" ht="12.0" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" ht="12.0" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" ht="12.0" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" ht="15.0" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" ht="12.0" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" ht="12.0" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" ht="15.0" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" ht="15.0" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" ht="12.0" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" ht="12.0" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" ht="12.0" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" ht="15.0" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" ht="15.0" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" ht="12.0" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" ht="12.0" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" ht="15.0" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" ht="15.0" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" ht="15.0" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" ht="15.0" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" ht="15.0" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
@@ -530,46 +1118,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -584,10 +1172,10 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
@@ -615,10 +1203,10 @@
     </row>
     <row r="3" ht="15.0" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
@@ -646,10 +1234,10 @@
     </row>
     <row r="4" ht="15.0" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
@@ -677,10 +1265,10 @@
     </row>
     <row r="5" ht="15.0" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
@@ -708,10 +1296,10 @@
     </row>
     <row r="6" ht="15.0" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
@@ -719,8 +1307,8 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="4" t="s">
-        <v>21</v>
+      <c r="I6" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -741,13 +1329,13 @@
     </row>
     <row r="7" ht="15.0" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
@@ -756,7 +1344,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -803,13 +1391,13 @@
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
@@ -818,7 +1406,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -838,13 +1426,13 @@
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
@@ -853,7 +1441,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -873,42 +1461,42 @@
     </row>
     <row r="11" ht="15.0" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="J11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
     </row>
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -937,7 +1525,7 @@
     </row>
     <row r="13" ht="15.0" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -966,16 +1554,16 @@
     </row>
     <row r="14" ht="36.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>38</v>
+        <v>66</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1000,27 +1588,27 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>39</v>
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="3"/>
       <c r="I15" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="10"/>
+      <c r="O15" s="8"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1033,14 +1621,14 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" ht="15.0" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>41</v>
+      <c r="A16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1053,8 +1641,8 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="10" t="s">
-        <v>25</v>
+      <c r="O16" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1068,14 +1656,14 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>43</v>
+      <c r="A17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1088,8 +1676,8 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="10" t="s">
-        <v>25</v>
+      <c r="O17" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1103,14 +1691,14 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" ht="15.0" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>45</v>
+      <c r="A18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1123,7 +1711,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="10"/>
+      <c r="O18" s="8"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1136,14 +1724,14 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" ht="15.0" customHeight="1">
-      <c r="A19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>48</v>
+      <c r="A19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1157,7 +1745,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1171,14 +1759,14 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" ht="15.0" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>50</v>
+      <c r="A20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1191,8 +1779,8 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="10" t="s">
-        <v>25</v>
+      <c r="O20" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1206,14 +1794,14 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>52</v>
+      <c r="A21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1226,8 +1814,8 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="10" t="s">
-        <v>25</v>
+      <c r="O21" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1241,8 +1829,8 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="10" t="s">
-        <v>34</v>
+      <c r="A23" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1257,7 +1845,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="10"/>
+      <c r="O23" s="8"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1273,7 +1861,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1300,7 +1888,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1327,7 +1915,7 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1352,15 +1940,15 @@
     </row>
     <row r="27" ht="15.0" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="D27" s="12"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1387,7 +1975,7 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1412,13 +2000,13 @@
     </row>
     <row r="29" ht="15.0" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1445,10 +2033,10 @@
     </row>
     <row r="30" ht="15.0" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1457,7 +2045,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1478,13 +2066,13 @@
     </row>
     <row r="31" ht="15.0" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1511,26 +2099,26 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>63</v>
+        <v>89</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="5" t="s">
-        <v>64</v>
+      <c r="G32" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -1550,26 +2138,26 @@
     </row>
     <row r="33" ht="15.0" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>66</v>
+        <v>94</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="1" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -1589,13 +2177,13 @@
     </row>
     <row r="34" ht="15.0" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>71</v>
+        <v>99</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="2"/>
@@ -1604,8 +2192,8 @@
       <c r="H34" s="3"/>
       <c r="I34" s="1"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="5" t="s">
-        <v>73</v>
+      <c r="K34" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -1624,31 +2212,31 @@
     </row>
     <row r="35" ht="15.0" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="1" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="1" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -1665,21 +2253,21 @@
     </row>
     <row r="36" ht="15.0" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="1" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -1687,7 +2275,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -1704,21 +2292,21 @@
     </row>
     <row r="37" ht="15.0" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1726,7 +2314,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="1" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -1743,21 +2331,21 @@
     </row>
     <row r="38" ht="15.0" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -1765,7 +2353,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="1" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -1782,16 +2370,16 @@
     </row>
     <row r="39" ht="26.25" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1844,19 +2432,19 @@
     </row>
     <row r="41" ht="15.0" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="1" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -1906,7 +2494,7 @@
     </row>
     <row r="43" ht="15.0" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1935,7 +2523,7 @@
     </row>
     <row r="44" ht="15.0" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1965,592 +2553,4 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="21.88"/>
-    <col customWidth="1" min="2" max="2" width="30.75"/>
-    <col customWidth="1" min="3" max="3" width="23.13"/>
-    <col customWidth="1" min="4" max="14" width="10.0"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" ht="15.0" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" ht="15.0" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" ht="15.0" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" ht="15.0" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" ht="15.0" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" ht="15.0" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="43.88"/>
-    <col customWidth="1" min="2" max="2" width="43.75"/>
-    <col customWidth="1" min="3" max="6" width="8.75"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="3"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/water/water_quality/water_quality.13.02.2015/VS_Water_Quality_02.07.2015.xls.xlsx
+++ b/water/water_quality/water_quality.13.02.2015/VS_Water_Quality_02.07.2015.xls.xlsx
@@ -13,176 +13,206 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="134">
   <si>
     <t>type</t>
   </si>
   <si>
+    <t>list name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>genus</t>
+  </si>
+  <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>bind:relevant</t>
+  </si>
+  <si>
+    <t>bind:constraint</t>
+  </si>
+  <si>
+    <t>media:image</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>constraint_message</t>
+  </si>
+  <si>
+    <t>readonly</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>yn</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
-    <t>list name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>genus</t>
-  </si>
-  <si>
-    <t>hint</t>
-  </si>
-  <si>
-    <t>choice_filter</t>
-  </si>
-  <si>
-    <t>bind:relevant</t>
-  </si>
-  <si>
-    <t>bind:constraint</t>
-  </si>
-  <si>
-    <t>media:image</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>repeat_count</t>
-  </si>
-  <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
-    <t>readonly</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>yn</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>meta_display</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
     <t>form_title</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>GHA</t>
-  </si>
-  <si>
     <t>water_lab_02_jul_2015_v1</t>
   </si>
   <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>TZA</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
+    <t>select one from country</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>analyst_first_name</t>
+  </si>
+  <si>
+    <t>Analysts First Name</t>
+  </si>
+  <si>
+    <t>analyst_last_name</t>
+  </si>
+  <si>
+    <t>Analysts Last Name</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>sample_anlysis_date</t>
+  </si>
+  <si>
+    <t>VS Water Laboratory Analysis Survey – 02 July 2015 v1</t>
+  </si>
+  <si>
+    <t>Date of water sample analysis</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>calibration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIBRATION OF INSTRUMENT </t>
   </si>
   <si>
     <t>cl2_ph</t>
   </si>
   <si>
-    <t>VS Water Laboratory Analysis Survey – 02 July 2015 v1</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>begin group</t>
-  </si>
-  <si>
-    <t>metadata</t>
-  </si>
-  <si>
-    <t>meta_display</t>
-  </si>
-  <si>
-    <t>field-list</t>
+    <t>Except for recording water temperature, one should tick off each step of calibration process.</t>
   </si>
   <si>
     <t>cl2_no3</t>
   </si>
   <si>
-    <t>select one from country</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>analyst_first_name</t>
-  </si>
-  <si>
-    <t>Analysts First Name</t>
-  </si>
-  <si>
-    <t>analyst_last_name</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
-    <t>Analysts Last Name</t>
+    <t>cl1_grp</t>
   </si>
   <si>
     <t>High</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>sample_anlysis_date</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>Low</t>
   </si>
   <si>
-    <t>Date of water sample analysis</t>
-  </si>
-  <si>
     <t>ws1_measure</t>
   </si>
   <si>
@@ -192,6 +222,15 @@
     <t>30ml</t>
   </si>
   <si>
+    <t>select one yn</t>
+  </si>
+  <si>
+    <t>cl1_1</t>
+  </si>
+  <si>
+    <t>EC Calibration</t>
+  </si>
+  <si>
     <t>50ml</t>
   </si>
   <si>
@@ -201,40 +240,13 @@
     <t>3ml</t>
   </si>
   <si>
+    <t>cl1_2</t>
+  </si>
+  <si>
+    <t>PO4 Blank</t>
+  </si>
+  <si>
     <t>1ml</t>
-  </si>
-  <si>
-    <t>end group</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>calibration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALIBRATION OF INSTRUMENT </t>
-  </si>
-  <si>
-    <t>Except for recording water temperature, one should tick off each step of calibration process.</t>
-  </si>
-  <si>
-    <t>cl1_grp</t>
-  </si>
-  <si>
-    <t>select one yn</t>
-  </si>
-  <si>
-    <t>cl1_1</t>
-  </si>
-  <si>
-    <t>EC Calibration</t>
-  </si>
-  <si>
-    <t>cl1_2</t>
-  </si>
-  <si>
-    <t>PO4 Blank</t>
   </si>
   <si>
     <t>cl2_0</t>
@@ -409,7 +421,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -429,6 +441,9 @@
     <font>
       <sz val="10.0"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -450,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -460,26 +475,28 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
@@ -517,22 +534,22 @@
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>34</v>
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C2" s="3">
         <v>1.0</v>
@@ -612,16 +629,16 @@
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -636,13 +653,13 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -658,13 +675,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>0.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -712,13 +729,13 @@
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -734,13 +751,13 @@
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -756,13 +773,13 @@
     </row>
     <row r="8" ht="15.0" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -777,9 +794,15 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -793,9 +816,15 @@
       <c r="N9" s="3"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -808,16 +837,10 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" ht="15.0" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4.0</v>
-      </c>
+    <row r="11" ht="12.0" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -830,16 +853,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" ht="15.0" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>7.0</v>
-      </c>
+    <row r="12" ht="12.0" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -852,10 +869,16 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+    <row r="13" ht="15.0" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4.0</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -868,10 +891,16 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+    <row r="14" ht="15.0" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7.0</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -900,16 +929,10 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" ht="15.0" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
+    <row r="16" ht="12.0" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -922,16 +945,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>54</v>
-      </c>
+    <row r="17" ht="12.0" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -944,10 +961,16 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+    <row r="18" ht="15.0" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -960,10 +983,16 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+    <row r="19" ht="15.0" customHeight="1">
+      <c r="A19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -976,16 +1005,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" ht="15.0" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>57</v>
-      </c>
+    <row r="20" ht="12.0" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -998,16 +1021,10 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>58</v>
-      </c>
+    <row r="21" ht="12.0" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1022,13 +1039,13 @@
     </row>
     <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1044,13 +1061,13 @@
     </row>
     <row r="23" ht="15.0" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1066,13 +1083,13 @@
     </row>
     <row r="24" ht="15.0" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1085,6 +1102,50 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
+    </row>
+    <row r="25" ht="15.0" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" ht="15.0" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1118,46 +1179,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -1172,10 +1233,10 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
@@ -1203,10 +1264,10 @@
     </row>
     <row r="3" ht="15.0" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
@@ -1234,10 +1295,10 @@
     </row>
     <row r="4" ht="15.0" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
@@ -1265,10 +1326,10 @@
     </row>
     <row r="5" ht="15.0" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
@@ -1296,10 +1357,10 @@
     </row>
     <row r="6" ht="15.0" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
@@ -1307,8 +1368,8 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="7" t="s">
-        <v>39</v>
+      <c r="I6" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1329,13 +1390,13 @@
     </row>
     <row r="7" ht="15.0" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
@@ -1344,7 +1405,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1391,13 +1452,13 @@
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
@@ -1406,7 +1467,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1426,13 +1487,13 @@
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
@@ -1441,7 +1502,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1461,13 +1522,13 @@
     </row>
     <row r="11" ht="15.0" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="11"/>
@@ -1475,8 +1536,8 @@
       <c r="G11" s="1"/>
       <c r="H11" s="11"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="6" t="s">
-        <v>43</v>
+      <c r="J11" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -1496,7 +1557,7 @@
     </row>
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1525,7 +1586,7 @@
     </row>
     <row r="13" ht="15.0" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1554,16 +1615,16 @@
     </row>
     <row r="14" ht="36.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1588,27 +1649,27 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>68</v>
+      <c r="A15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="3"/>
       <c r="I15" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="8"/>
+      <c r="O15" s="14"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1621,10 +1682,10 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" ht="15.0" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1641,8 +1702,8 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="8" t="s">
-        <v>43</v>
+      <c r="O16" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1656,14 +1717,14 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>72</v>
+      <c r="B17" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1676,8 +1737,8 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="8" t="s">
-        <v>43</v>
+      <c r="O17" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1691,14 +1752,14 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" ht="15.0" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>74</v>
+      <c r="B18" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1711,7 +1772,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="8"/>
+      <c r="O18" s="14"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1724,14 +1785,14 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" ht="15.0" customHeight="1">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>77</v>
+      <c r="B19" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1745,7 +1806,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1759,14 +1820,14 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" ht="15.0" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>79</v>
+      <c r="B20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1779,8 +1840,8 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="8" t="s">
-        <v>43</v>
+      <c r="O20" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1794,14 +1855,14 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>81</v>
+      <c r="B21" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1814,8 +1875,8 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="8" t="s">
-        <v>43</v>
+      <c r="O21" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1829,8 +1890,8 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>63</v>
+      <c r="A23" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1845,7 +1906,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="8"/>
+      <c r="O23" s="14"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1861,7 +1922,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1888,7 +1949,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1915,7 +1976,7 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1940,15 +2001,15 @@
     </row>
     <row r="27" ht="15.0" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="D27" s="13"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1975,7 +2036,7 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2000,13 +2061,13 @@
     </row>
     <row r="29" ht="15.0" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2033,10 +2094,10 @@
     </row>
     <row r="30" ht="15.0" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2045,7 +2106,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2066,13 +2127,13 @@
     </row>
     <row r="31" ht="15.0" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2099,26 +2160,26 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="9" t="s">
-        <v>93</v>
+      <c r="G32" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2138,26 +2199,26 @@
     </row>
     <row r="33" ht="15.0" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2177,13 +2238,13 @@
     </row>
     <row r="34" ht="15.0" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="2"/>
@@ -2192,8 +2253,8 @@
       <c r="H34" s="3"/>
       <c r="I34" s="1"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="9" t="s">
-        <v>102</v>
+      <c r="K34" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -2212,31 +2273,31 @@
     </row>
     <row r="35" ht="15.0" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -2253,21 +2314,21 @@
     </row>
     <row r="36" ht="15.0" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -2275,7 +2336,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -2292,21 +2353,21 @@
     </row>
     <row r="37" ht="15.0" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -2314,7 +2375,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -2331,21 +2392,21 @@
     </row>
     <row r="38" ht="15.0" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -2353,7 +2414,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -2370,16 +2431,16 @@
     </row>
     <row r="39" ht="26.25" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2432,19 +2493,19 @@
     </row>
     <row r="41" ht="15.0" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2494,7 +2555,7 @@
     </row>
     <row r="43" ht="15.0" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2523,7 +2584,7 @@
     </row>
     <row r="44" ht="15.0" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
